--- a/data/case1/5/Q2_11.xlsx
+++ b/data/case1/5/Q2_11.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.25384121705295826</v>
+        <v>0.25517891189561936</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999825635086</v>
+        <v>-0.0059999999642599278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999838205014</v>
+        <v>-0.0039999999664210861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999706394931</v>
+        <v>-0.0079999999392317278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999821512802</v>
+        <v>-0.0029999999627481344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999786755041</v>
+        <v>-0.0019999999553270698</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999564075459</v>
+        <v>-0.009999999909534818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.020935125405943555</v>
+        <v>-0.02130194861916701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999780124789</v>
+        <v>-0.0019999999538682367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999783397726</v>
+        <v>-0.0019999999544442204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999756071816</v>
+        <v>-0.0029999999488099505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999743838828</v>
+        <v>-0.0034999999463907194</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999754932176</v>
+        <v>-0.0034999999486133859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999636539698</v>
+        <v>-0.0079999999242224007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.037477611721178583</v>
+        <v>0.03669175600679786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999805424551</v>
+        <v>-0.0019999999589486173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999980109024</v>
+        <v>-0.0019999999580253558</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.003999999974519497</v>
+        <v>-0.0039999999465223368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.047555301775794145</v>
+        <v>-0.047642278871539823</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999868527425</v>
+        <v>-0.0039999999728905777</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999867275093</v>
+        <v>-0.0039999999725948143</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999866049407</v>
+        <v>-0.0039999999723647761</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999801659811</v>
+        <v>-0.0049999999589225297</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999937352797</v>
+        <v>-0.019999999870788265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.01999999993654189</v>
+        <v>-0.019999999869092733</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999763366532</v>
+        <v>-0.0024999999505528336</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999751238455</v>
+        <v>-0.0024999999480139756</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999710362815</v>
+        <v>-0.001999999939398478</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999534502422</v>
+        <v>-0.0069999999031482574</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999806411353</v>
+        <v>-0.059999999600523157</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999501924037</v>
+        <v>-0.0069999998961840504</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999417530461</v>
+        <v>-0.0099999998788220523</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999580828671</v>
+        <v>-0.0039999999124464836</v>
       </c>
     </row>
   </sheetData>
